--- a/StructureDefinition-PromotionAndTreatment.xlsx
+++ b/StructureDefinition-PromotionAndTreatment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-15T10:57:51+00:00</t>
+    <t>2026-01-15T12:19:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PromotionAndTreatment.xlsx
+++ b/StructureDefinition-PromotionAndTreatment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-15T12:19:16+00:00</t>
+    <t>2026-01-15T13:05:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PromotionAndTreatment.xlsx
+++ b/StructureDefinition-PromotionAndTreatment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-15T13:05:29+00:00</t>
+    <t>2026-01-15T13:53:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1150,7 +1150,7 @@
 </t>
   </si>
   <si>
-    <t>PromotionAndTreatment.ancGestationalAgeAtVisitCat</t>
+    <t>PromotionAndTreatment.gestationalAgeAtVisitCat</t>
   </si>
   <si>
     <t xml:space="preserve">positiveInt
